--- a/data/trans_orig/P55S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF077FB2-9947-41F9-ACD1-E3F47B901595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E04318-77CF-46FB-ABF3-5EE67839DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D500B5BF-1CF7-4FCF-96F3-A8B8F54605E1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FD4DD5C-21BE-4EA7-B41D-A16DC1F36F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="287">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2007 (Tasa respuesta: 5,34%)</t>
   </si>
@@ -134,787 +134,772 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>6,63%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>20,93%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 5,92%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2015 (Tasa respuesta: 5,34%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 5,92%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2015 (Tasa respuesta: 5,34%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 10,61%)</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>4,27%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 10,61%)</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
+    <t>10,88%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
   </si>
   <si>
     <t>11,73%</t>
   </si>
   <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
   </si>
   <si>
     <t>19,18%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>5,33%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>6,36%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
+    <t>3,35%</t>
   </si>
 </sst>
 </file>
@@ -1326,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A485735B-83A2-4A69-A818-F73D62427165}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF6EB9-3660-4F6D-8508-E713C9906AB8}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3827,10 +3812,10 @@
         <v>7656</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>33</v>
@@ -3947,10 +3932,10 @@
         <v>51</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -3965,13 +3950,13 @@
         <v>22287</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H59" s="7">
         <v>54</v>
@@ -3980,13 +3965,13 @@
         <v>59055</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M59" s="7">
         <v>77</v>
@@ -3995,13 +3980,13 @@
         <v>81343</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4016,13 +4001,13 @@
         <v>19522</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H60" s="7">
         <v>63</v>
@@ -4031,13 +4016,13 @@
         <v>70076</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M60" s="7">
         <v>84</v>
@@ -4046,13 +4031,13 @@
         <v>89598</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,13 +4052,13 @@
         <v>61584</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H61" s="7">
         <v>25</v>
@@ -4082,13 +4067,13 @@
         <v>24923</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M61" s="7">
         <v>90</v>
@@ -4097,13 +4082,13 @@
         <v>86507</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,13 +4103,13 @@
         <v>6434</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H62" s="7">
         <v>15</v>
@@ -4133,13 +4118,13 @@
         <v>15212</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M62" s="7">
         <v>21</v>
@@ -4148,13 +4133,13 @@
         <v>21647</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,13 +4154,13 @@
         <v>126578</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" s="7">
         <v>215</v>
@@ -4184,13 +4169,13 @@
         <v>230922</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M63" s="7">
         <v>348</v>
@@ -4199,13 +4184,13 @@
         <v>357501</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,10 +4324,10 @@
         <v>7656</v>
       </c>
       <c r="J66" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="L66" s="7" t="s">
         <v>33</v>
@@ -4459,10 +4444,10 @@
         <v>51</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4462,13 @@
         <v>22287</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H69" s="7">
         <v>54</v>
@@ -4492,13 +4477,13 @@
         <v>59055</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M69" s="7">
         <v>77</v>
@@ -4507,13 +4492,13 @@
         <v>81343</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -4528,13 +4513,13 @@
         <v>19522</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H70" s="7">
         <v>63</v>
@@ -4543,13 +4528,13 @@
         <v>70076</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M70" s="7">
         <v>84</v>
@@ -4558,13 +4543,13 @@
         <v>89598</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -4579,13 +4564,13 @@
         <v>61584</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H71" s="7">
         <v>25</v>
@@ -4594,13 +4579,13 @@
         <v>24923</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M71" s="7">
         <v>90</v>
@@ -4609,13 +4594,13 @@
         <v>86507</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -4630,13 +4615,13 @@
         <v>6434</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H72" s="7">
         <v>15</v>
@@ -4645,13 +4630,13 @@
         <v>15212</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M72" s="7">
         <v>21</v>
@@ -4660,13 +4645,13 @@
         <v>21647</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -4681,13 +4666,13 @@
         <v>126578</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" s="7">
         <v>215</v>
@@ -4696,13 +4681,13 @@
         <v>230922</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M73" s="7">
         <v>348</v>
@@ -4711,18 +4696,18 @@
         <v>357501</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4744,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A803A4D-1CD8-420C-8ABF-305A43F0540B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BD67E5-E6AB-4851-872C-4DE819DD7193}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4761,7 +4746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7128,13 +7113,13 @@
         <v>998</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -7143,13 +7128,13 @@
         <v>1100</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M54" s="7">
         <v>2</v>
@@ -7158,13 +7143,13 @@
         <v>2097</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,7 +7170,7 @@
         <v>26</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7200,7 +7185,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7215,7 +7200,7 @@
         <v>26</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7215,13 @@
         <v>7470</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H56" s="7">
         <v>28</v>
@@ -7245,13 +7230,13 @@
         <v>30294</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M56" s="7">
         <v>35</v>
@@ -7260,13 +7245,13 @@
         <v>37764</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7266,13 @@
         <v>16014</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="H57" s="7">
         <v>34</v>
@@ -7347,7 +7332,7 @@
         <v>2097</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>25</v>
@@ -7365,7 +7350,7 @@
         <v>123</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q58" s="7" t="s">
         <v>124</v>
@@ -7383,13 +7368,13 @@
         <v>26556</v>
       </c>
       <c r="E59" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H59" s="7">
         <v>76</v>
@@ -7398,13 +7383,13 @@
         <v>82046</v>
       </c>
       <c r="J59" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K59" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L59" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M59" s="7">
         <v>101</v>
@@ -7413,13 +7398,13 @@
         <v>108602</v>
       </c>
       <c r="O59" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P59" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q59" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q59" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7419,13 @@
         <v>26783</v>
       </c>
       <c r="E60" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H60" s="7">
         <v>69</v>
@@ -7449,13 +7434,13 @@
         <v>75647</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M60" s="7">
         <v>92</v>
@@ -7464,13 +7449,13 @@
         <v>102430</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P60" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q60" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P60" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7470,13 @@
         <v>57644</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H61" s="7">
         <v>40</v>
@@ -7500,13 +7485,13 @@
         <v>43221</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M61" s="7">
         <v>90</v>
@@ -7515,13 +7500,13 @@
         <v>100865</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7521,13 @@
         <v>6292</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H62" s="7">
         <v>6</v>
@@ -7551,13 +7536,13 @@
         <v>6361</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M62" s="7">
         <v>11</v>
@@ -7566,13 +7551,13 @@
         <v>12653</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7572,13 @@
         <v>146168</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" s="7">
         <v>256</v>
@@ -7602,13 +7587,13 @@
         <v>279530</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M63" s="7">
         <v>385</v>
@@ -7617,13 +7602,13 @@
         <v>425698</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,13 +7625,13 @@
         <v>998</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -7655,13 +7640,13 @@
         <v>1100</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M64" s="7">
         <v>2</v>
@@ -7670,13 +7655,13 @@
         <v>2097</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,7 +7682,7 @@
         <v>26</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -7712,7 +7697,7 @@
         <v>26</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -7727,7 +7712,7 @@
         <v>26</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7727,13 @@
         <v>7470</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H66" s="7">
         <v>28</v>
@@ -7757,13 +7742,13 @@
         <v>30294</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M66" s="7">
         <v>35</v>
@@ -7772,13 +7757,13 @@
         <v>37764</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7778,13 @@
         <v>16014</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="H67" s="7">
         <v>34</v>
@@ -7859,7 +7844,7 @@
         <v>2097</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>25</v>
@@ -7877,7 +7862,7 @@
         <v>123</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q68" s="7" t="s">
         <v>124</v>
@@ -7895,13 +7880,13 @@
         <v>26556</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H69" s="7">
         <v>76</v>
@@ -7910,13 +7895,13 @@
         <v>82046</v>
       </c>
       <c r="J69" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K69" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L69" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M69" s="7">
         <v>101</v>
@@ -7925,13 +7910,13 @@
         <v>108602</v>
       </c>
       <c r="O69" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q69" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q69" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7931,13 @@
         <v>26783</v>
       </c>
       <c r="E70" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H70" s="7">
         <v>69</v>
@@ -7961,13 +7946,13 @@
         <v>75647</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M70" s="7">
         <v>92</v>
@@ -7976,13 +7961,13 @@
         <v>102430</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q70" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +7982,13 @@
         <v>57644</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H71" s="7">
         <v>40</v>
@@ -8012,13 +7997,13 @@
         <v>43221</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M71" s="7">
         <v>90</v>
@@ -8027,13 +8012,13 @@
         <v>100865</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8033,13 @@
         <v>6292</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H72" s="7">
         <v>6</v>
@@ -8063,13 +8048,13 @@
         <v>6361</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M72" s="7">
         <v>11</v>
@@ -8078,13 +8063,13 @@
         <v>12653</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8084,13 @@
         <v>146168</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" s="7">
         <v>256</v>
@@ -8114,13 +8099,13 @@
         <v>279530</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M73" s="7">
         <v>385</v>
@@ -8129,18 +8114,18 @@
         <v>425698</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -8162,7 +8147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B79FAF-22A7-407E-964D-9C802C8DA490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E464B7-A87C-4F22-A09F-8D8CC4B55940}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8179,7 +8164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10561,13 +10546,13 @@
         <v>1259</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -10576,13 +10561,13 @@
         <v>1259</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10612,13 +10597,13 @@
         <v>1347</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -10627,13 +10612,13 @@
         <v>1347</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10654,7 +10639,7 @@
         <v>25</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H56" s="7">
         <v>9</v>
@@ -10663,13 +10648,13 @@
         <v>10989</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M56" s="7">
         <v>10</v>
@@ -10678,13 +10663,13 @@
         <v>11791</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -10699,13 +10684,13 @@
         <v>16857</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H57" s="7">
         <v>30</v>
@@ -10714,13 +10699,13 @@
         <v>38201</v>
       </c>
       <c r="J57" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K57" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M57" s="7">
         <v>49</v>
@@ -10729,13 +10714,13 @@
         <v>55058</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q57" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10750,13 +10735,13 @@
         <v>890</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="H58" s="7">
         <v>6</v>
@@ -10765,13 +10750,13 @@
         <v>7228</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
@@ -10780,13 +10765,13 @@
         <v>8119</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10801,13 +10786,13 @@
         <v>31573</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H59" s="7">
         <v>56</v>
@@ -10816,13 +10801,13 @@
         <v>70464</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M59" s="7">
         <v>93</v>
@@ -10831,13 +10816,13 @@
         <v>102038</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10852,13 +10837,13 @@
         <v>15936</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H60" s="7">
         <v>54</v>
@@ -10867,13 +10852,13 @@
         <v>69560</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M60" s="7">
         <v>72</v>
@@ -10882,13 +10867,13 @@
         <v>85496</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10903,13 +10888,13 @@
         <v>53547</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H61" s="7">
         <v>39</v>
@@ -10918,13 +10903,13 @@
         <v>46155</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M61" s="7">
         <v>97</v>
@@ -10933,13 +10918,13 @@
         <v>99702</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10960,7 +10945,7 @@
         <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H62" s="7">
         <v>19</v>
@@ -10969,13 +10954,13 @@
         <v>22159</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M62" s="7">
         <v>21</v>
@@ -10984,13 +10969,13 @@
         <v>24011</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11005,13 +10990,13 @@
         <v>121458</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" s="7">
         <v>215</v>
@@ -11020,13 +11005,13 @@
         <v>267363</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M63" s="7">
         <v>351</v>
@@ -11035,13 +11020,13 @@
         <v>388821</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -11073,13 +11058,13 @@
         <v>1259</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -11088,13 +11073,13 @@
         <v>1259</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11124,13 +11109,13 @@
         <v>1347</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -11139,13 +11124,13 @@
         <v>1347</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11166,7 +11151,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H66" s="7">
         <v>9</v>
@@ -11175,13 +11160,13 @@
         <v>10989</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M66" s="7">
         <v>10</v>
@@ -11190,13 +11175,13 @@
         <v>11791</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -11211,13 +11196,13 @@
         <v>16857</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H67" s="7">
         <v>30</v>
@@ -11226,13 +11211,13 @@
         <v>38201</v>
       </c>
       <c r="J67" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="K67" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M67" s="7">
         <v>49</v>
@@ -11241,13 +11226,13 @@
         <v>55058</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q67" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -11262,13 +11247,13 @@
         <v>890</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="H68" s="7">
         <v>6</v>
@@ -11277,13 +11262,13 @@
         <v>7228</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M68" s="7">
         <v>7</v>
@@ -11292,13 +11277,13 @@
         <v>8119</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -11313,13 +11298,13 @@
         <v>31573</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H69" s="7">
         <v>56</v>
@@ -11328,13 +11313,13 @@
         <v>70464</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M69" s="7">
         <v>93</v>
@@ -11343,13 +11328,13 @@
         <v>102038</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -11364,13 +11349,13 @@
         <v>15936</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H70" s="7">
         <v>54</v>
@@ -11379,13 +11364,13 @@
         <v>69560</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M70" s="7">
         <v>72</v>
@@ -11394,13 +11379,13 @@
         <v>85496</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -11415,13 +11400,13 @@
         <v>53547</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H71" s="7">
         <v>39</v>
@@ -11430,13 +11415,13 @@
         <v>46155</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M71" s="7">
         <v>97</v>
@@ -11445,13 +11430,13 @@
         <v>99702</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -11472,7 +11457,7 @@
         <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H72" s="7">
         <v>19</v>
@@ -11481,13 +11466,13 @@
         <v>22159</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="M72" s="7">
         <v>21</v>
@@ -11496,13 +11481,13 @@
         <v>24011</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -11517,13 +11502,13 @@
         <v>121458</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" s="7">
         <v>215</v>
@@ -11532,13 +11517,13 @@
         <v>267363</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M73" s="7">
         <v>351</v>
@@ -11547,18 +11532,18 @@
         <v>388821</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -11580,7 +11565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB28969E-FF55-4CD1-96BE-F0AB84E5F949}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485B6CF-58F4-47C5-83AC-69D029D39320}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11597,7 +11582,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -13964,13 +13949,13 @@
         <v>666</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -13985,7 +13970,7 @@
         <v>26</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -13994,13 +13979,13 @@
         <v>666</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14021,7 +14006,7 @@
         <v>26</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -14036,7 +14021,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -14051,7 +14036,7 @@
         <v>26</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14066,13 +14051,13 @@
         <v>8077</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H56" s="7">
         <v>34</v>
@@ -14081,13 +14066,13 @@
         <v>17626</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M56" s="7">
         <v>47</v>
@@ -14096,13 +14081,13 @@
         <v>25704</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14117,13 +14102,13 @@
         <v>11237</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="H57" s="7">
         <v>52</v>
@@ -14132,13 +14117,13 @@
         <v>28054</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M57" s="7">
         <v>70</v>
@@ -14147,13 +14132,13 @@
         <v>39291</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14168,13 +14153,13 @@
         <v>3347</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H58" s="7">
         <v>13</v>
@@ -14183,13 +14168,13 @@
         <v>9361</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M58" s="7">
         <v>19</v>
@@ -14198,13 +14183,13 @@
         <v>12708</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14219,13 +14204,13 @@
         <v>63242</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H59" s="7">
         <v>340</v>
@@ -14234,13 +14219,13 @@
         <v>182099</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M59" s="7">
         <v>436</v>
@@ -14249,13 +14234,13 @@
         <v>245342</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -14270,13 +14255,13 @@
         <v>11349</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H60" s="7">
         <v>119</v>
@@ -14285,13 +14270,13 @@
         <v>68090</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M60" s="7">
         <v>137</v>
@@ -14300,13 +14285,13 @@
         <v>79439</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14321,13 +14306,13 @@
         <v>58915</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H61" s="7">
         <v>82</v>
@@ -14336,13 +14321,13 @@
         <v>42751</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M61" s="7">
         <v>174</v>
@@ -14351,13 +14336,13 @@
         <v>101666</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14372,13 +14357,13 @@
         <v>8836</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H62" s="7">
         <v>30</v>
@@ -14387,13 +14372,13 @@
         <v>16326</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M62" s="7">
         <v>44</v>
@@ -14402,13 +14387,13 @@
         <v>25162</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14423,13 +14408,13 @@
         <v>165669</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H63" s="7">
         <v>670</v>
@@ -14438,13 +14423,13 @@
         <v>364309</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M63" s="7">
         <v>928</v>
@@ -14453,13 +14438,13 @@
         <v>529978</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -14476,13 +14461,13 @@
         <v>666</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -14497,7 +14482,7 @@
         <v>26</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -14506,13 +14491,13 @@
         <v>666</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14533,7 +14518,7 @@
         <v>26</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -14548,7 +14533,7 @@
         <v>26</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -14563,7 +14548,7 @@
         <v>26</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14578,13 +14563,13 @@
         <v>8077</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H66" s="7">
         <v>34</v>
@@ -14593,13 +14578,13 @@
         <v>17626</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M66" s="7">
         <v>47</v>
@@ -14608,13 +14593,13 @@
         <v>25704</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -14629,13 +14614,13 @@
         <v>11237</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="H67" s="7">
         <v>52</v>
@@ -14644,13 +14629,13 @@
         <v>28054</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M67" s="7">
         <v>70</v>
@@ -14659,13 +14644,13 @@
         <v>39291</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -14680,13 +14665,13 @@
         <v>3347</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>251</v>
+        <v>100</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H68" s="7">
         <v>13</v>
@@ -14695,13 +14680,13 @@
         <v>9361</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M68" s="7">
         <v>19</v>
@@ -14710,13 +14695,13 @@
         <v>12708</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>47</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -14731,13 +14716,13 @@
         <v>63242</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H69" s="7">
         <v>340</v>
@@ -14746,13 +14731,13 @@
         <v>182099</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M69" s="7">
         <v>436</v>
@@ -14761,13 +14746,13 @@
         <v>245342</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -14782,13 +14767,13 @@
         <v>11349</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H70" s="7">
         <v>119</v>
@@ -14797,13 +14782,13 @@
         <v>68090</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M70" s="7">
         <v>137</v>
@@ -14812,13 +14797,13 @@
         <v>79439</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -14833,13 +14818,13 @@
         <v>58915</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H71" s="7">
         <v>82</v>
@@ -14848,13 +14833,13 @@
         <v>42751</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M71" s="7">
         <v>174</v>
@@ -14863,13 +14848,13 @@
         <v>101666</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -14884,13 +14869,13 @@
         <v>8836</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="H72" s="7">
         <v>30</v>
@@ -14899,13 +14884,13 @@
         <v>16326</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M72" s="7">
         <v>44</v>
@@ -14914,13 +14899,13 @@
         <v>25162</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -14935,13 +14920,13 @@
         <v>165669</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H73" s="7">
         <v>670</v>
@@ -14950,13 +14935,13 @@
         <v>364309</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M73" s="7">
         <v>928</v>
@@ -14965,18 +14950,18 @@
         <v>529978</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P55S1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P55S1-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E04318-77CF-46FB-ABF3-5EE67839DC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF3CF42-413B-4A06-ADE7-58729B0C9429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FD4DD5C-21BE-4EA7-B41D-A16DC1F36F9B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F6FAB6C-1DDE-42FB-B96F-A00270B7064C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="283">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2007 (Tasa respuesta: 5,34%)</t>
   </si>
@@ -134,726 +134,717 @@
     <t>0,66%</t>
   </si>
   <si>
+    <t>2,68%</t>
+  </si>
+  <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>2,38%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>6,45%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 5,92%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2016 (Tasa respuesta: 5,34%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 10,61%)</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2012 (Tasa respuesta: 5,92%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
   <si>
     <t>35,56%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2015 (Tasa respuesta: 5,34%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 1 en 2023 (Tasa respuesta: 10,61%)</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
     <t>29,66%</t>
   </si>
   <si>
@@ -885,9 +876,6 @@
   </si>
   <si>
     <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -1311,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF6EB9-3660-4F6D-8508-E713C9906AB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AC4382-C6B7-4AA7-BE82-0FE7F9980726}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3812,13 +3800,13 @@
         <v>7656</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M56" s="7">
         <v>8</v>
@@ -3827,13 +3815,13 @@
         <v>8492</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3836,13 @@
         <v>14138</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H57" s="7">
         <v>45</v>
@@ -3863,13 +3851,13 @@
         <v>48331</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M57" s="7">
         <v>60</v>
@@ -3878,13 +3866,13 @@
         <v>62469</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3887,13 @@
         <v>1776</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H58" s="7">
         <v>6</v>
@@ -4324,13 +4312,13 @@
         <v>7656</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M66" s="7">
         <v>8</v>
@@ -4339,13 +4327,13 @@
         <v>8492</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4348,13 @@
         <v>14138</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H67" s="7">
         <v>45</v>
@@ -4375,13 +4363,13 @@
         <v>48331</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M67" s="7">
         <v>60</v>
@@ -4390,13 +4378,13 @@
         <v>62469</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,13 +4399,13 @@
         <v>1776</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H68" s="7">
         <v>6</v>
@@ -4729,7 +4717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BD67E5-E6AB-4851-872C-4DE819DD7193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4701239-D977-4971-95D8-63C574E7F56A}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7272,7 +7260,7 @@
         <v>112</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H57" s="7">
         <v>34</v>
@@ -7281,13 +7269,13 @@
         <v>38764</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M57" s="7">
         <v>49</v>
@@ -7296,13 +7284,13 @@
         <v>54778</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,13 +7305,13 @@
         <v>4411</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H58" s="7">
         <v>2</v>
@@ -7338,7 +7326,7 @@
         <v>25</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M58" s="7">
         <v>5</v>
@@ -7347,13 +7335,13 @@
         <v>6508</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -7368,13 +7356,13 @@
         <v>26556</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H59" s="7">
         <v>76</v>
@@ -7383,13 +7371,13 @@
         <v>82046</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M59" s="7">
         <v>101</v>
@@ -7398,13 +7386,13 @@
         <v>108602</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7419,13 +7407,13 @@
         <v>26783</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H60" s="7">
         <v>69</v>
@@ -7434,13 +7422,13 @@
         <v>75647</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M60" s="7">
         <v>92</v>
@@ -7449,13 +7437,13 @@
         <v>102430</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7470,13 +7458,13 @@
         <v>57644</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H61" s="7">
         <v>40</v>
@@ -7485,13 +7473,13 @@
         <v>43221</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M61" s="7">
         <v>90</v>
@@ -7500,13 +7488,13 @@
         <v>100865</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7521,13 +7509,13 @@
         <v>6292</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H62" s="7">
         <v>6</v>
@@ -7536,13 +7524,13 @@
         <v>6361</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M62" s="7">
         <v>11</v>
@@ -7551,13 +7539,13 @@
         <v>12653</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,7 +7772,7 @@
         <v>112</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="H67" s="7">
         <v>34</v>
@@ -7793,13 +7781,13 @@
         <v>38764</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M67" s="7">
         <v>49</v>
@@ -7808,13 +7796,13 @@
         <v>54778</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -7829,13 +7817,13 @@
         <v>4411</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -7850,7 +7838,7 @@
         <v>25</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M68" s="7">
         <v>5</v>
@@ -7859,13 +7847,13 @@
         <v>6508</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -7880,13 +7868,13 @@
         <v>26556</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H69" s="7">
         <v>76</v>
@@ -7895,13 +7883,13 @@
         <v>82046</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M69" s="7">
         <v>101</v>
@@ -7910,13 +7898,13 @@
         <v>108602</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -7931,13 +7919,13 @@
         <v>26783</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H70" s="7">
         <v>69</v>
@@ -7946,13 +7934,13 @@
         <v>75647</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M70" s="7">
         <v>92</v>
@@ -7961,13 +7949,13 @@
         <v>102430</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -7982,13 +7970,13 @@
         <v>57644</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H71" s="7">
         <v>40</v>
@@ -7997,13 +7985,13 @@
         <v>43221</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M71" s="7">
         <v>90</v>
@@ -8012,13 +8000,13 @@
         <v>100865</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -8033,13 +8021,13 @@
         <v>6292</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H72" s="7">
         <v>6</v>
@@ -8048,13 +8036,13 @@
         <v>6361</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M72" s="7">
         <v>11</v>
@@ -8063,13 +8051,13 @@
         <v>12653</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,7 +8135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E464B7-A87C-4F22-A09F-8D8CC4B55940}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8573D0C-7021-4D57-AF24-5C034C45AF13}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8164,7 +8152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -10537,7 +10525,7 @@
         <v>26</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" s="7">
         <v>1</v>
@@ -10546,13 +10534,13 @@
         <v>1259</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -10561,13 +10549,13 @@
         <v>1259</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,7 +10576,7 @@
         <v>26</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" s="7">
         <v>1</v>
@@ -10603,7 +10591,7 @@
         <v>25</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M55" s="7">
         <v>1</v>
@@ -10612,13 +10600,13 @@
         <v>1347</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P55" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,7 +10627,7 @@
         <v>25</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H56" s="7">
         <v>9</v>
@@ -10648,13 +10636,13 @@
         <v>10989</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M56" s="7">
         <v>10</v>
@@ -10663,10 +10651,10 @@
         <v>11791</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="Q56" s="7" t="s">
         <v>172</v>
@@ -10702,10 +10690,10 @@
         <v>176</v>
       </c>
       <c r="K57" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M57" s="7">
         <v>49</v>
@@ -10714,13 +10702,13 @@
         <v>55058</v>
       </c>
       <c r="O57" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P57" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P57" s="7" t="s">
+      <c r="Q57" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q57" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -10735,13 +10723,13 @@
         <v>890</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="H58" s="7">
         <v>6</v>
@@ -10753,10 +10741,10 @@
         <v>183</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
@@ -10765,13 +10753,13 @@
         <v>8119</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10786,13 +10774,13 @@
         <v>31573</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H59" s="7">
         <v>56</v>
@@ -10801,13 +10789,13 @@
         <v>70464</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="M59" s="7">
         <v>93</v>
@@ -10843,7 +10831,7 @@
         <v>197</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="H60" s="7">
         <v>54</v>
@@ -10852,13 +10840,13 @@
         <v>69560</v>
       </c>
       <c r="J60" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K60" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="L60" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M60" s="7">
         <v>72</v>
@@ -10867,13 +10855,13 @@
         <v>85496</v>
       </c>
       <c r="O60" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P60" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P60" s="7" t="s">
+      <c r="Q60" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10888,13 +10876,13 @@
         <v>53547</v>
       </c>
       <c r="E61" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H61" s="7">
         <v>39</v>
@@ -10903,13 +10891,13 @@
         <v>46155</v>
       </c>
       <c r="J61" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="L61" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M61" s="7">
         <v>97</v>
@@ -10918,13 +10906,13 @@
         <v>99702</v>
       </c>
       <c r="O61" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P61" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q61" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q61" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10939,13 +10927,13 @@
         <v>1853</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="H62" s="7">
         <v>19</v>
@@ -10954,13 +10942,13 @@
         <v>22159</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M62" s="7">
         <v>21</v>
@@ -10969,13 +10957,13 @@
         <v>24011</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -11049,7 +11037,7 @@
         <v>26</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" s="7">
         <v>1</v>
@@ -11058,13 +11046,13 @@
         <v>1259</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -11073,13 +11061,13 @@
         <v>1259</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -11100,7 +11088,7 @@
         <v>26</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -11115,7 +11103,7 @@
         <v>25</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M65" s="7">
         <v>1</v>
@@ -11124,13 +11112,13 @@
         <v>1347</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -11151,7 +11139,7 @@
         <v>25</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H66" s="7">
         <v>9</v>
@@ -11160,13 +11148,13 @@
         <v>10989</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M66" s="7">
         <v>10</v>
@@ -11175,10 +11163,10 @@
         <v>11791</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="Q66" s="7" t="s">
         <v>172</v>
@@ -11214,10 +11202,10 @@
         <v>176</v>
       </c>
       <c r="K67" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L67" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M67" s="7">
         <v>49</v>
@@ -11226,13 +11214,13 @@
         <v>55058</v>
       </c>
       <c r="O67" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P67" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P67" s="7" t="s">
+      <c r="Q67" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q67" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -11247,13 +11235,13 @@
         <v>890</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="H68" s="7">
         <v>6</v>
@@ -11265,10 +11253,10 @@
         <v>183</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M68" s="7">
         <v>7</v>
@@ -11277,13 +11265,13 @@
         <v>8119</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>96</v>
+        <v>186</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -11298,13 +11286,13 @@
         <v>31573</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H69" s="7">
         <v>56</v>
@@ -11313,13 +11301,13 @@
         <v>70464</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="M69" s="7">
         <v>93</v>
@@ -11355,7 +11343,7 @@
         <v>197</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="H70" s="7">
         <v>54</v>
@@ -11364,13 +11352,13 @@
         <v>69560</v>
       </c>
       <c r="J70" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K70" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="L70" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L70" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M70" s="7">
         <v>72</v>
@@ -11379,13 +11367,13 @@
         <v>85496</v>
       </c>
       <c r="O70" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P70" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P70" s="7" t="s">
+      <c r="Q70" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q70" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -11400,13 +11388,13 @@
         <v>53547</v>
       </c>
       <c r="E71" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F71" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="G71" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H71" s="7">
         <v>39</v>
@@ -11415,13 +11403,13 @@
         <v>46155</v>
       </c>
       <c r="J71" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="L71" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M71" s="7">
         <v>97</v>
@@ -11430,13 +11418,13 @@
         <v>99702</v>
       </c>
       <c r="O71" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q71" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q71" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -11451,13 +11439,13 @@
         <v>1853</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="H72" s="7">
         <v>19</v>
@@ -11466,13 +11454,13 @@
         <v>22159</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M72" s="7">
         <v>21</v>
@@ -11481,13 +11469,13 @@
         <v>24011</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>218</v>
+        <v>94</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -11565,7 +11553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C485B6CF-58F4-47C5-83AC-69D029D39320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95888E9-E465-485A-AA51-B9D7FF145E67}">
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11582,7 +11570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -13949,13 +13937,13 @@
         <v>666</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -13970,7 +13958,7 @@
         <v>26</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M54" s="7">
         <v>1</v>
@@ -13979,13 +13967,13 @@
         <v>666</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P54" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -14006,7 +13994,7 @@
         <v>26</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -14021,7 +14009,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -14036,7 +14024,7 @@
         <v>26</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -14051,13 +14039,13 @@
         <v>8077</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H56" s="7">
         <v>34</v>
@@ -14066,13 +14054,13 @@
         <v>17626</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M56" s="7">
         <v>47</v>
@@ -14081,13 +14069,13 @@
         <v>25704</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -14102,13 +14090,13 @@
         <v>11237</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="H57" s="7">
         <v>52</v>
@@ -14117,13 +14105,13 @@
         <v>28054</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M57" s="7">
         <v>70</v>
@@ -14132,13 +14120,13 @@
         <v>39291</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -14153,13 +14141,13 @@
         <v>3347</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H58" s="7">
         <v>13</v>
@@ -14168,13 +14156,13 @@
         <v>9361</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M58" s="7">
         <v>19</v>
@@ -14183,13 +14171,13 @@
         <v>12708</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -14204,13 +14192,13 @@
         <v>63242</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H59" s="7">
         <v>340</v>
@@ -14219,13 +14207,13 @@
         <v>182099</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M59" s="7">
         <v>436</v>
@@ -14234,13 +14222,13 @@
         <v>245342</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -14255,13 +14243,13 @@
         <v>11349</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H60" s="7">
         <v>119</v>
@@ -14270,13 +14258,13 @@
         <v>68090</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M60" s="7">
         <v>137</v>
@@ -14285,13 +14273,13 @@
         <v>79439</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -14306,13 +14294,13 @@
         <v>58915</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H61" s="7">
         <v>82</v>
@@ -14321,13 +14309,13 @@
         <v>42751</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M61" s="7">
         <v>174</v>
@@ -14336,13 +14324,13 @@
         <v>101666</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -14357,13 +14345,13 @@
         <v>8836</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H62" s="7">
         <v>30</v>
@@ -14372,13 +14360,13 @@
         <v>16326</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M62" s="7">
         <v>44</v>
@@ -14387,13 +14375,13 @@
         <v>25162</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -14461,13 +14449,13 @@
         <v>666</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -14482,7 +14470,7 @@
         <v>26</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M64" s="7">
         <v>1</v>
@@ -14491,13 +14479,13 @@
         <v>666</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P64" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14518,7 +14506,7 @@
         <v>26</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -14533,7 +14521,7 @@
         <v>26</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -14548,7 +14536,7 @@
         <v>26</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -14563,13 +14551,13 @@
         <v>8077</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H66" s="7">
         <v>34</v>
@@ -14578,13 +14566,13 @@
         <v>17626</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M66" s="7">
         <v>47</v>
@@ -14593,13 +14581,13 @@
         <v>25704</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -14614,13 +14602,13 @@
         <v>11237</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="H67" s="7">
         <v>52</v>
@@ -14629,13 +14617,13 @@
         <v>28054</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M67" s="7">
         <v>70</v>
@@ -14644,13 +14632,13 @@
         <v>39291</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -14665,13 +14653,13 @@
         <v>3347</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>100</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H68" s="7">
         <v>13</v>
@@ -14680,13 +14668,13 @@
         <v>9361</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M68" s="7">
         <v>19</v>
@@ -14695,13 +14683,13 @@
         <v>12708</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -14716,13 +14704,13 @@
         <v>63242</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H69" s="7">
         <v>340</v>
@@ -14731,13 +14719,13 @@
         <v>182099</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M69" s="7">
         <v>436</v>
@@ -14746,13 +14734,13 @@
         <v>245342</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -14767,13 +14755,13 @@
         <v>11349</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H70" s="7">
         <v>119</v>
@@ -14782,13 +14770,13 @@
         <v>68090</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M70" s="7">
         <v>137</v>
@@ -14797,13 +14785,13 @@
         <v>79439</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -14818,13 +14806,13 @@
         <v>58915</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>128</v>
+        <v>267</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H71" s="7">
         <v>82</v>
@@ -14833,13 +14821,13 @@
         <v>42751</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M71" s="7">
         <v>174</v>
@@ -14848,13 +14836,13 @@
         <v>101666</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -14869,13 +14857,13 @@
         <v>8836</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H72" s="7">
         <v>30</v>
@@ -14884,13 +14872,13 @@
         <v>16326</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M72" s="7">
         <v>44</v>
@@ -14899,13 +14887,13 @@
         <v>25162</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
